--- a/excel/fon_is_eigenvector_centrality.xlsx
+++ b/excel/fon_is_eigenvector_centrality.xlsx
@@ -385,13 +385,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4084407947913887</v>
+        <v>0.408440794791389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Milica Vuckovic</t>
+          <t>Nina Turajlic</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -411,7 +411,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nina Turajlic</t>
+          <t>Milica Vuckovic</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -421,21 +421,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Marko Petrovic</t>
+          <t>Zoran Marjanovic</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3633033600429841</v>
+        <v>0.363303360042984</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Zoran Marjanovic</t>
+          <t>Marko Petrovic</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.363303360042984</v>
+        <v>0.3633033600429839</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2865472637181687</v>
+        <v>0.2865472637181688</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07560776207250931</v>
+        <v>0.07560776207250969</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06509329065312751</v>
+        <v>0.06509329065312749</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06509329065312726</v>
+        <v>0.06509329065312713</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01354669010392892</v>
+        <v>0.013546690103929</v>
       </c>
     </row>
   </sheetData>

--- a/excel/fon_is_eigenvector_centrality.xlsx
+++ b/excel/fon_is_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.408440794791389</v>
+        <v>0.4084407947913887</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3969524742729599</v>
+        <v>0.3969524742729598</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Zoran Marjanovic</t>
+          <t>Marko Petrovic</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -431,7 +431,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Marko Petrovic</t>
+          <t>Zoran Marjanovic</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2865472637181688</v>
+        <v>0.2865472637181687</v>
       </c>
     </row>
     <row r="9">
@@ -455,27 +455,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07560776207250969</v>
+        <v>0.0756077620725094</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vidan Markovic</t>
+          <t>Srdja Bjeladinovic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06509329065312749</v>
+        <v>0.06509329065312762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Srdja Bjeladinovic</t>
+          <t>Vidan Markovic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06509329065312713</v>
+        <v>0.0650932906531274</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.013546690103929</v>
+        <v>0.01354669010392875</v>
       </c>
     </row>
   </sheetData>

--- a/excel/fon_is_eigenvector_centrality.xlsx
+++ b/excel/fon_is_eigenvector_centrality.xlsx
@@ -385,13 +385,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4084407947913887</v>
+        <v>0.4084407947913888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nina Turajlic</t>
+          <t>Milica Vuckovic</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -405,13 +405,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3969524742729598</v>
+        <v>0.3969524742729599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Milica Vuckovic</t>
+          <t>Nina Turajlic</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.363303360042984</v>
+        <v>0.3633033600429839</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3633033600429839</v>
+        <v>0.3633033600429838</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2865472637181687</v>
+        <v>0.2865472637181688</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0756077620725094</v>
+        <v>0.07560776207250916</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06509329065312762</v>
+        <v>0.06509329065312751</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0650932906531274</v>
+        <v>0.06509329065312715</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01354669010392875</v>
+        <v>0.01354669010392861</v>
       </c>
     </row>
   </sheetData>
